--- a/resources/data_sheet.xlsx
+++ b/resources/data_sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\IdeaProjects\testNGProject_B197\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="user_data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>first_name</t>
   </si>
@@ -148,12 +148,27 @@
   </si>
   <si>
     <t>buick</t>
+  </si>
+  <si>
+    <t>zahid</t>
+  </si>
+  <si>
+    <t>ahmad ramin</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>AFG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -250,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,6 +277,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,9 +496,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="201" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -601,8 +619,32 @@
         <v>800000</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1120</v>
+      </c>
+      <c r="F6" s="9">
+        <v>45292</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -707,7 +749,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="357" zoomScaleNormal="357" workbookViewId="0">
+    <sheetView zoomScale="357" zoomScaleNormal="357" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
